--- a/results/gurobi_cplex_comparison/seed_40_k_25.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_25.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.021</v>
+        <v>0.695</v>
       </c>
       <c r="F2">
-        <v>0.038</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.021</v>
+        <v>0.987</v>
       </c>
       <c r="F3">
-        <v>0.058</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.019</v>
+        <v>1.341</v>
       </c>
       <c r="F4">
-        <v>0.032</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.027</v>
+        <v>1.747</v>
       </c>
       <c r="F5">
-        <v>0.041</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.023</v>
+        <v>2.212</v>
       </c>
       <c r="F6">
-        <v>0.048</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.031</v>
+        <v>2.801</v>
       </c>
       <c r="F7">
-        <v>0.053</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.038</v>
+        <v>3.306</v>
       </c>
       <c r="F8">
-        <v>0.067</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.045</v>
+        <v>3.929</v>
       </c>
       <c r="F9">
-        <v>0.14</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.038</v>
+        <v>4.659</v>
       </c>
       <c r="F10">
-        <v>0.054</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.074</v>
+        <v>5.416</v>
       </c>
       <c r="F11">
-        <v>0.08500000000000001</v>
+        <v>1.159</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09</v>
+        <v>6.217</v>
       </c>
       <c r="F12">
-        <v>89.378</v>
+        <v>99.879</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.059</v>
+        <v>7.037</v>
       </c>
       <c r="F13">
-        <v>89.166</v>
+        <v>124.888</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09</v>
+        <v>7.959</v>
       </c>
       <c r="F14">
-        <v>90.593</v>
+        <v>66.371</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.076</v>
+        <v>8.891</v>
       </c>
       <c r="F15">
-        <v>109.891</v>
+        <v>107.972</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.068</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="F16">
-        <v>89.61799999999999</v>
+        <v>96.017</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.079</v>
+        <v>11.102</v>
       </c>
       <c r="F17">
-        <v>85.384</v>
+        <v>117.338</v>
       </c>
     </row>
   </sheetData>
